--- a/parameter_list/GMM+parameterTuning.xlsx
+++ b/parameter_list/GMM+parameterTuning.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>n_components</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>covariance_type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>max_iter</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>silhouette_score</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>calinski_harabasz_score</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>davies_bouldin_score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>parameters_combinations</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>rank</t>
         </is>
       </c>
     </row>
@@ -462,15 +482,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4527979532207544</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"3,tied,100"</t>
+          <t>full</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3713291815494722</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5065.576438039041</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9571321535134176</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>"3,full,100"</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -480,15 +514,29 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4527979532207544</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"3,tied,200"</t>
+          <t>full</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>200</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3712338199884166</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5064.326065589307</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9573629699597795</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>"3,full,200"</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -498,177 +546,317 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4526929481417876</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"3,tied,300"</t>
+          <t>full</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3707042343384537</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5088.309085548354</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9624860040441598</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>"3,full,300"</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.448291543913364</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>tied</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4526589152577544</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2531.215350147853</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.675983045896853</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>"3,tied,100"</t>
         </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.446047508977586</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"3,tied,300"</t>
+          <t>tied</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>200</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4527979532207544</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2537.143858591715</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.675953161735702</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>"3,tied,200"</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4452103718762916</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"3,tied,200"</t>
+          <t>tied</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4526929481417876</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2523.019753020384</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.675800039749896</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>"3,tied,300"</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4383141734217992</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"3,tied,200"</t>
+          <t>diag</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3818544750536612</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8675.72076385585</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.8650512795895965</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>"3,diag,100"</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4383141734217992</v>
+        <v>3</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"3,tied,300"</t>
+          <t>diag</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>200</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3821955212324357</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8661.537898895693</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.8627008065362883</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>"3,diag,200"</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.431793982447517</v>
+        <v>3</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"3,tied,100"</t>
+          <t>diag</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3821852881607675</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8662.045334967615</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.8631780220978134</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>"3,diag,300"</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.418071521167891</v>
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"3,spherical,200"</t>
+          <t>spherical</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3871588630139174</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8630.326163370493</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.8506736830098457</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>"3,spherical,100"</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4178924481923916</v>
+        <v>3</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"3,spherical,300"</t>
+          <t>spherical</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>200</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3872119750267731</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8633.477146682089</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.8504676803706254</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>"3,spherical,200"</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4173745940003128</v>
+        <v>3</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"3,spherical,100"</t>
+          <t>spherical</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>300</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.38722440398499</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8634.128277657044</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8504286123014788</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>"3,spherical,300"</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -678,15 +866,29 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4062245612595565</v>
+        <v>3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"3,diag,200"</t>
+          <t>full</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>100</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3883290588108689</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2975.061839674094</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.520361401029918</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>"3,full,100"</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -696,15 +898,29 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4047046329334571</v>
+        <v>3</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"3,diag,100"</t>
+          <t>full</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3998086856640308</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3203.313776124786</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.449736141908877</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>"3,full,200"</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -714,87 +930,157 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4044432947461591</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"3,diag,300"</t>
+          <t>full</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>300</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3881652031009871</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2974.547023631191</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.526564623219458</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>"3,full,300"</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3994236843491595</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"3,diag,100"</t>
+          <t>tied</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.446047508977586</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3686.153350710229</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8236548589813522</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>"3,tied,100"</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3942793865408401</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"3,full,100"</t>
+          <t>tied</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>200</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.4449962485393325</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3652.381333934555</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8295572126793221</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>"3,tied,200"</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3939740740922811</v>
+        <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"3,spherical,100"</t>
+          <t>tied</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>300</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4483337566060674</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3612.462339956081</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8194872936349161</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>"3,tied,300"</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3921123136918436</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"3,diag,300"</t>
+          <t>diag</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>100</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.4061628825853181</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5636.444390424403</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9334876136461561</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>"3,diag,100"</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -804,15 +1090,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3881652031009871</v>
+        <v>3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"3,full,300"</t>
+          <t>diag</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>200</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4060904781390077</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5636.669832306199</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9336187869888398</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>"3,diag,200"</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -822,267 +1122,477 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3878649350185132</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"3,full,100"</t>
+          <t>diag</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>300</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4045978522690609</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5663.171388630208</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9377720187944627</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>"3,diag,300"</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>eval_datasets/test_1_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.38754533778745</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"3,spherical,300"</t>
+          <t>spherical</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4175136180840178</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5568.729935117257</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9173691293829629</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>"3,spherical,100"</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>eval_datasets/test_1_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.38754533778745</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>spherical</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>200</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4174466710087468</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5572.228923645085</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9172135251802516</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>"3,spherical,200"</t>
         </is>
-      </c>
-      <c r="D24" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>eval_datasets/test_1_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.38722440398499</v>
+        <v>3</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"3,spherical,100"</t>
+          <t>spherical</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>300</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4173944362793489</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5573.187899683043</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9183547620424378</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>"3,spherical,300"</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3863775485992573</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"3,full,200"</t>
+          <t>full</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>100</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3128261004177476</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8101.961388764939</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9893841942921332</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>"3,full,100"</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>eval_datasets/test_1_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3821607275759917</v>
+        <v>3</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"3,diag,200"</t>
+          <t>full</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>200</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.3128261004177476</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8101.961388764939</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9893841942921332</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>"3,full,200"</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>eval_datasets/test_1_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3818786229738593</v>
+        <v>3</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"3,diag,300"</t>
+          <t>full</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>300</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.308360068786517</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8056.006966661434</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.015215648233033</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>"3,full,300"</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>eval_datasets/test_1_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3818138243826937</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"3,diag,100"</t>
+          <t>tied</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>100</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.3362786415945854</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7627.855113595599</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.8434214222879882</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>"3,tied,100"</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3779594329946405</v>
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"3,full,300"</t>
+          <t>tied</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.336494089994105</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7655.184867704135</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.8441164642835018</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>"3,tied,200"</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3779594329946405</v>
+        <v>3</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"3,full,200"</t>
+          <t>tied</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>9</v>
+        <v>300</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.3364212757126929</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7645.632138990512</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.8439235871730341</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>"3,tied,300"</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>eval_datasets/test_1_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3712338199884166</v>
+        <v>3</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"3,full,200"</t>
+          <t>diag</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.3412454955856721</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9291.686148827801</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9404884928694527</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>"3,diag,100"</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>eval_datasets/test_1_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3706483640160504</v>
+        <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"3,full,300"</t>
+          <t>diag</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>11</v>
+        <v>200</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.3412454955856721</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9291.686148827801</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9404884928694527</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>"3,diag,200"</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>eval_datasets/test_1_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3705470529710734</v>
+        <v>3</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"3,full,100"</t>
+          <t>diag</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>12</v>
+        <v>300</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.3410934226996859</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9293.834634756558</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.9417160481795216</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>"3,diag,300"</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3673032989505864</v>
+        <v>3</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"3,spherical,300"</t>
+          <t>spherical</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.3605396486350117</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9505.778371748624</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.9195485950779779</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>"3,spherical,100"</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3634358944130418</v>
+        <v>3</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>spherical</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>200</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.3604854606608494</v>
+      </c>
+      <c r="F36" t="n">
+        <v>9505.334464763109</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9196838302045429</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t>"3,spherical,200"</t>
         </is>
-      </c>
-      <c r="D36" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -1092,51 +1602,93 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3609352484059912</v>
+        <v>3</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"3,spherical,200"</t>
+          <t>spherical</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>300</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.3609304060345884</v>
+      </c>
+      <c r="F37" t="n">
+        <v>9525.926140373422</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9190650611769589</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>"3,spherical,300"</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3609304060345884</v>
+        <v>3</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"3,spherical,100"</t>
+          <t>full</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.377899514448425</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4891.170761781601</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.917637767204002</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>"3,full,100"</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3606465806326254</v>
+        <v>3</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"3,spherical,300"</t>
+          <t>full</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.3939567348526167</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5017.445341707783</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.8914005852085943</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>"3,full,200"</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1146,177 +1698,317 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3594662873365977</v>
+        <v>3</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"3,diag,200"</t>
+          <t>full</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>300</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.394306190680601</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5027.032973229936</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.8906511098045882</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>"3,full,300"</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3423382362223698</v>
+        <v>3</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"3,diag,100"</t>
+          <t>tied</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.4373962275164303</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3902.024796168489</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.7123567832612645</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>"3,tied,100"</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3411849071698716</v>
+        <v>3</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"3,diag,200"</t>
+          <t>tied</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>200</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.4384483704643504</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3857.971196429117</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.7056372487987718</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>"3,tied,200"</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3411613497738997</v>
+        <v>3</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"3,diag,300"</t>
+          <t>tied</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>300</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.4367432831688153</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3896.908455742978</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.7130007715904064</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>"3,tied,300"</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3364212757126929</v>
+        <v>3</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"3,tied,300"</t>
+          <t>diag</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>100</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.382374957185998</v>
+      </c>
+      <c r="F44" t="n">
+        <v>6696.478063994449</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9055142219351312</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>"3,diag,100"</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.3335076203536721</v>
+        <v>3</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"3,tied,100"</t>
+          <t>diag</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.3967123542439575</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6492.149841417589</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.8625656405159061</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>"3,diag,200"</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3322479463397241</v>
+        <v>3</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"3,tied,200"</t>
+          <t>diag</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>300</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.3594662873365977</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7041.937793529813</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.9523069945157777</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>"3,diag,300"</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.3128261004177476</v>
+        <v>3</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"3,full,300"</t>
+          <t>spherical</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.3671224286083303</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6780.702420717797</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.9722364022197008</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>"3,spherical,100"</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.312803479153811</v>
+        <v>3</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"3,full,200"</t>
+          <t>spherical</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>11</v>
+        <v>200</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.363442902445315</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6797.660189975906</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9720502708456676</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>"3,spherical,200"</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.3089008259148097</v>
+        <v>3</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"3,full,100"</t>
+          <t>spherical</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>12</v>
+        <v>300</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.3636222700405987</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6798.019202763542</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9716862474207441</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>"3,spherical,300"</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/parameter_list/GMM+parameterTuning.xlsx
+++ b/parameter_list/GMM+parameterTuning.xlsx
@@ -493,13 +493,13 @@
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3713291815494722</v>
+        <v>0.3706439733217722</v>
       </c>
       <c r="F2" t="n">
-        <v>5065.576438039041</v>
+        <v>5081.585440938589</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9571321535134176</v>
+        <v>0.9607676988713761</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -525,13 +525,13 @@
         <v>200</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3712338199884166</v>
+        <v>0.3713291815494722</v>
       </c>
       <c r="F3" t="n">
-        <v>5064.326065589307</v>
+        <v>5065.576438039041</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9573629699597795</v>
+        <v>0.9571321535134176</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -557,13 +557,13 @@
         <v>300</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3707042343384537</v>
+        <v>0.3705237223723681</v>
       </c>
       <c r="F4" t="n">
-        <v>5088.309085548354</v>
+        <v>5101.36286684728</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9624860040441598</v>
+        <v>0.9617051990997419</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -589,13 +589,13 @@
         <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4526589152577544</v>
+        <v>0.4526929481417876</v>
       </c>
       <c r="F5" t="n">
-        <v>2531.215350147853</v>
+        <v>2523.019753020384</v>
       </c>
       <c r="G5" t="n">
-        <v>0.675983045896853</v>
+        <v>0.6758000397498961</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,13 +621,13 @@
         <v>200</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4527979532207544</v>
+        <v>0.4526929481417876</v>
       </c>
       <c r="F6" t="n">
-        <v>2537.143858591715</v>
+        <v>2523.019753020384</v>
       </c>
       <c r="G6" t="n">
-        <v>0.675953161735702</v>
+        <v>0.675800039749896</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -653,13 +653,13 @@
         <v>300</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4526929481417876</v>
+        <v>0.4527979532207544</v>
       </c>
       <c r="F7" t="n">
-        <v>2523.019753020384</v>
+        <v>2537.143858591715</v>
       </c>
       <c r="G7" t="n">
-        <v>0.675800039749896</v>
+        <v>0.675953161735702</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -685,13 +685,13 @@
         <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3818544750536612</v>
+        <v>0.3818786229738593</v>
       </c>
       <c r="F8" t="n">
-        <v>8675.72076385585</v>
+        <v>8677.748390688295</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8650512795895965</v>
+        <v>0.8651343506231757</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -717,13 +717,13 @@
         <v>200</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3821955212324357</v>
+        <v>0.3818440716382375</v>
       </c>
       <c r="F9" t="n">
-        <v>8661.537898895693</v>
+        <v>8671.752215989496</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8627008065362883</v>
+        <v>0.8649679066595505</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>300</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3821852881607675</v>
+        <v>0.3821283083325145</v>
       </c>
       <c r="F10" t="n">
-        <v>8662.045334967615</v>
+        <v>8660.283998607241</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8631780220978134</v>
+        <v>0.8627131773258658</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -781,13 +781,13 @@
         <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3871588630139174</v>
+        <v>0.3875720864809506</v>
       </c>
       <c r="F11" t="n">
-        <v>8630.326163370493</v>
+        <v>8655.103028437818</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8506736830098457</v>
+        <v>0.8499494951515073</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -813,13 +813,13 @@
         <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3872119750267731</v>
+        <v>0.3875113480711116</v>
       </c>
       <c r="F12" t="n">
-        <v>8633.477146682089</v>
+        <v>8656.960782743798</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8504676803706254</v>
+        <v>0.8501670251431136</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -845,13 +845,13 @@
         <v>300</v>
       </c>
       <c r="E13" t="n">
-        <v>0.38722440398499</v>
+        <v>0.387563991228909</v>
       </c>
       <c r="F13" t="n">
-        <v>8634.128277657044</v>
+        <v>8654.049847039129</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8504286123014788</v>
+        <v>0.8499218940492953</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -877,13 +877,13 @@
         <v>100</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3883290588108689</v>
+        <v>0.3881652031009871</v>
       </c>
       <c r="F14" t="n">
-        <v>2975.061839674094</v>
+        <v>2974.547023631191</v>
       </c>
       <c r="G14" t="n">
-        <v>1.520361401029918</v>
+        <v>1.526564623219458</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -909,13 +909,13 @@
         <v>200</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3998086856640308</v>
+        <v>0.3929858001147865</v>
       </c>
       <c r="F15" t="n">
-        <v>3203.313776124786</v>
+        <v>3058.249722627409</v>
       </c>
       <c r="G15" t="n">
-        <v>1.449736141908877</v>
+        <v>1.499038398201603</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -941,13 +941,13 @@
         <v>300</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3881652031009871</v>
+        <v>0.3998086856640308</v>
       </c>
       <c r="F16" t="n">
-        <v>2974.547023631191</v>
+        <v>3203.313776124786</v>
       </c>
       <c r="G16" t="n">
-        <v>1.526564623219458</v>
+        <v>1.449736141908877</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -973,13 +973,13 @@
         <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>0.446047508977586</v>
+        <v>0.4458403892416981</v>
       </c>
       <c r="F17" t="n">
-        <v>3686.153350710229</v>
+        <v>3654.235181048795</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8236548589813522</v>
+        <v>0.8271398481531395</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1005,13 +1005,13 @@
         <v>200</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4449962485393325</v>
+        <v>0.4454746178595764</v>
       </c>
       <c r="F18" t="n">
-        <v>3652.381333934555</v>
+        <v>3656.873383118541</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8295572126793221</v>
+        <v>0.8276649473805335</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1037,13 +1037,13 @@
         <v>300</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4483337566060674</v>
+        <v>0.4460655494654994</v>
       </c>
       <c r="F19" t="n">
-        <v>3612.462339956081</v>
+        <v>3684.516313732795</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8194872936349161</v>
+        <v>0.8236775966512401</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1069,13 +1069,13 @@
         <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4061628825853181</v>
+        <v>0.4060904781390077</v>
       </c>
       <c r="F20" t="n">
-        <v>5636.444390424403</v>
+        <v>5636.669832306199</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9334876136461561</v>
+        <v>0.9336187869888398</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1101,13 +1101,13 @@
         <v>200</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4060904781390077</v>
+        <v>0.4045915675834846</v>
       </c>
       <c r="F21" t="n">
-        <v>5636.669832306199</v>
+        <v>5664.676326508626</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9336187869888398</v>
+        <v>0.9375097701117275</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1133,13 +1133,13 @@
         <v>300</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4045978522690609</v>
+        <v>0.4044432947461591</v>
       </c>
       <c r="F22" t="n">
-        <v>5663.171388630208</v>
+        <v>5667.148142980256</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9377720187944627</v>
+        <v>0.9379823000369013</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1165,13 +1165,13 @@
         <v>100</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4175136180840178</v>
+        <v>0.4174977325823315</v>
       </c>
       <c r="F23" t="n">
-        <v>5568.729935117257</v>
+        <v>5571.051951953562</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9173691293829629</v>
+        <v>0.917156662339602</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1197,13 +1197,13 @@
         <v>200</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4174466710087468</v>
+        <v>0.4173745940003128</v>
       </c>
       <c r="F24" t="n">
-        <v>5572.228923645085</v>
+        <v>5572.604268497021</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9172135251802516</v>
+        <v>0.9174738767393738</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1229,13 +1229,13 @@
         <v>300</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4173944362793489</v>
+        <v>0.4178262725408046</v>
       </c>
       <c r="F25" t="n">
-        <v>5573.187899683043</v>
+        <v>5565.68807019182</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9183547620424378</v>
+        <v>0.9165165631533582</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1261,13 +1261,13 @@
         <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3128261004177476</v>
+        <v>0.3127371199766076</v>
       </c>
       <c r="F26" t="n">
-        <v>8101.961388764939</v>
+        <v>8100.291440781987</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9893841942921332</v>
+        <v>0.9898757953854975</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1293,13 +1293,13 @@
         <v>200</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3128261004177476</v>
+        <v>0.3078707344556314</v>
       </c>
       <c r="F27" t="n">
-        <v>8101.961388764939</v>
+        <v>8053.377127678</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9893841942921332</v>
+        <v>1.017519886502401</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1325,13 +1325,13 @@
         <v>300</v>
       </c>
       <c r="E28" t="n">
-        <v>0.308360068786517</v>
+        <v>0.3128261004177476</v>
       </c>
       <c r="F28" t="n">
-        <v>8056.006966661434</v>
+        <v>8101.961388764939</v>
       </c>
       <c r="G28" t="n">
-        <v>1.015215648233033</v>
+        <v>0.9893841942921332</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1357,13 +1357,13 @@
         <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3362786415945854</v>
+        <v>0.3362250704828679</v>
       </c>
       <c r="F29" t="n">
-        <v>7627.855113595599</v>
+        <v>7624.892567045559</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8434214222879882</v>
+        <v>0.8434596759262867</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1389,13 +1389,13 @@
         <v>200</v>
       </c>
       <c r="E30" t="n">
-        <v>0.336494089994105</v>
+        <v>0.3315248913974244</v>
       </c>
       <c r="F30" t="n">
-        <v>7655.184867704135</v>
+        <v>7144.124054882011</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8441164642835018</v>
+        <v>0.8333107385435072</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1421,13 +1421,13 @@
         <v>300</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3364212757126929</v>
+        <v>0.3362786415945854</v>
       </c>
       <c r="F31" t="n">
-        <v>7645.632138990512</v>
+        <v>7627.8551135956</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8439235871730341</v>
+        <v>0.8434214222879882</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1453,13 +1453,13 @@
         <v>100</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3412454955856721</v>
+        <v>0.3422897481779436</v>
       </c>
       <c r="F32" t="n">
-        <v>9291.686148827801</v>
+        <v>9295.286315144695</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9404884928694527</v>
+        <v>0.9368233716119018</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1485,13 +1485,13 @@
         <v>200</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3412454955856721</v>
+        <v>0.3411473312649019</v>
       </c>
       <c r="F33" t="n">
-        <v>9291.686148827801</v>
+        <v>9293.529622884815</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9404884928694527</v>
+        <v>0.9414828383127966</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1517,13 +1517,13 @@
         <v>300</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3410934226996859</v>
+        <v>0.341137605707335</v>
       </c>
       <c r="F34" t="n">
-        <v>9293.834634756558</v>
+        <v>9293.845714736382</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9417160481795216</v>
+        <v>0.9415448783216253</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1549,13 +1549,13 @@
         <v>100</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3605396486350117</v>
+        <v>0.360838722810818</v>
       </c>
       <c r="F35" t="n">
-        <v>9505.778371748624</v>
+        <v>9515.91693033815</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9195485950779779</v>
+        <v>0.919130901364054</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>0.3604854606608494</v>
       </c>
       <c r="F36" t="n">
-        <v>9505.334464763109</v>
+        <v>9505.334464763111</v>
       </c>
       <c r="G36" t="n">
         <v>0.9196838302045429</v>
@@ -1613,13 +1613,13 @@
         <v>300</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3609304060345884</v>
+        <v>0.3601588678083794</v>
       </c>
       <c r="F37" t="n">
-        <v>9525.926140373422</v>
+        <v>9476.279520160768</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9190650611769589</v>
+        <v>0.9201642134019931</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1645,13 +1645,13 @@
         <v>100</v>
       </c>
       <c r="E38" t="n">
-        <v>0.377899514448425</v>
+        <v>0.3941303649609976</v>
       </c>
       <c r="F38" t="n">
-        <v>4891.170761781601</v>
+        <v>5026.199614125992</v>
       </c>
       <c r="G38" t="n">
-        <v>0.917637767204002</v>
+        <v>0.890919866098996</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1677,13 +1677,13 @@
         <v>200</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3939567348526167</v>
+        <v>0.3851192540369015</v>
       </c>
       <c r="F39" t="n">
-        <v>5017.445341707783</v>
+        <v>4901.401898333038</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8914005852085943</v>
+        <v>0.9073665524244459</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1709,13 +1709,13 @@
         <v>300</v>
       </c>
       <c r="E40" t="n">
-        <v>0.394306190680601</v>
+        <v>0.3749552464647124</v>
       </c>
       <c r="F40" t="n">
-        <v>5027.032973229936</v>
+        <v>4853.387823717316</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8906511098045882</v>
+        <v>0.9237168975858524</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1741,13 +1741,13 @@
         <v>100</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4373962275164303</v>
+        <v>0.431793982447517</v>
       </c>
       <c r="F41" t="n">
-        <v>3902.024796168489</v>
+        <v>3874.986592042972</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7123567832612645</v>
+        <v>0.7202180140216877</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1773,13 +1773,13 @@
         <v>200</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4384483704643504</v>
+        <v>0.4383141734217992</v>
       </c>
       <c r="F42" t="n">
-        <v>3857.971196429117</v>
+        <v>3857.606472392716</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7056372487987718</v>
+        <v>0.7061327063081136</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1805,13 +1805,13 @@
         <v>300</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4367432831688153</v>
+        <v>0.4311588533862203</v>
       </c>
       <c r="F43" t="n">
-        <v>3896.908455742978</v>
+        <v>3881.382905357981</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7130007715904064</v>
+        <v>0.7212148994569678</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1837,13 +1837,13 @@
         <v>100</v>
       </c>
       <c r="E44" t="n">
-        <v>0.382374957185998</v>
+        <v>0.3594662873365977</v>
       </c>
       <c r="F44" t="n">
-        <v>6696.478063994449</v>
+        <v>7041.937793529813</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9055142219351312</v>
+        <v>0.9523069945157777</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1869,13 +1869,13 @@
         <v>200</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3967123542439575</v>
+        <v>0.3994671806625403</v>
       </c>
       <c r="F45" t="n">
-        <v>6492.149841417589</v>
+        <v>6435.176273323329</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8625656405159061</v>
+        <v>0.8532655034082394</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         <v>300</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3594662873365977</v>
+        <v>0.3677651670390286</v>
       </c>
       <c r="F46" t="n">
-        <v>7041.937793529813</v>
+        <v>6926.811119675755</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9523069945157777</v>
+        <v>0.9424154244514963</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1933,13 +1933,13 @@
         <v>100</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3671224286083303</v>
+        <v>0.4101132717153071</v>
       </c>
       <c r="F47" t="n">
-        <v>6780.702420717797</v>
+        <v>6126.750918009139</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9722364022197008</v>
+        <v>0.8737726707659803</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1965,13 +1965,13 @@
         <v>200</v>
       </c>
       <c r="E48" t="n">
-        <v>0.363442902445315</v>
+        <v>0.409617984669521</v>
       </c>
       <c r="F48" t="n">
-        <v>6797.660189975906</v>
+        <v>6126.540660624026</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9720502708456676</v>
+        <v>0.8762195902021471</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -1997,13 +1997,13 @@
         <v>300</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3636222700405987</v>
+        <v>0.4100383925578349</v>
       </c>
       <c r="F49" t="n">
-        <v>6798.019202763542</v>
+        <v>6127.706593869126</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9716862474207441</v>
+        <v>0.8737591092984758</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>

--- a/parameter_list/GMM+parameterTuning.xlsx
+++ b/parameter_list/GMM+parameterTuning.xlsx
@@ -493,13 +493,13 @@
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3706439733217722</v>
+        <v>0.3705783953362942</v>
       </c>
       <c r="F2" t="n">
-        <v>5081.585440938589</v>
+        <v>5080.447070289368</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9607676988713761</v>
+        <v>0.9609280844967838</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -525,13 +525,13 @@
         <v>200</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3713291815494722</v>
+        <v>0.3706451780158456</v>
       </c>
       <c r="F3" t="n">
-        <v>5065.576438039041</v>
+        <v>5080.50523895579</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9571321535134176</v>
+        <v>0.9595036781618478</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -557,13 +557,13 @@
         <v>300</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3705237223723681</v>
+        <v>0.370610571977688</v>
       </c>
       <c r="F4" t="n">
-        <v>5101.36286684728</v>
+        <v>5079.905901894858</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9617051990997419</v>
+        <v>0.960707026054035</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -589,13 +589,13 @@
         <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4526929481417876</v>
+        <v>0.4526589152577544</v>
       </c>
       <c r="F5" t="n">
-        <v>2523.019753020384</v>
+        <v>2531.215350147853</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6758000397498961</v>
+        <v>0.675983045896853</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,13 +621,13 @@
         <v>200</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4526929481417876</v>
+        <v>0.4527979532207544</v>
       </c>
       <c r="F6" t="n">
-        <v>2523.019753020384</v>
+        <v>2537.143858591715</v>
       </c>
       <c r="G6" t="n">
-        <v>0.675800039749896</v>
+        <v>0.675953161735702</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -653,13 +653,13 @@
         <v>300</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4527979532207544</v>
+        <v>0.4528548189754595</v>
       </c>
       <c r="F7" t="n">
-        <v>2537.143858591715</v>
+        <v>2520.732946607047</v>
       </c>
       <c r="G7" t="n">
-        <v>0.675953161735702</v>
+        <v>0.6741595738377016</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -685,13 +685,13 @@
         <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3818786229738593</v>
+        <v>0.3821773542624384</v>
       </c>
       <c r="F8" t="n">
-        <v>8677.748390688295</v>
+        <v>8662.568993659788</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8651343506231757</v>
+        <v>0.8632616850971558</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -717,13 +717,13 @@
         <v>200</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3818440716382375</v>
+        <v>0.3817858535384154</v>
       </c>
       <c r="F9" t="n">
-        <v>8671.752215989496</v>
+        <v>8670.459989039735</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8649679066595505</v>
+        <v>0.8649506858602433</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>300</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3821283083325145</v>
+        <v>0.3821865760697379</v>
       </c>
       <c r="F10" t="n">
-        <v>8660.283998607241</v>
+        <v>8661.37614331081</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8627131773258658</v>
+        <v>0.8631312068650848</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -781,13 +781,13 @@
         <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3875720864809506</v>
+        <v>0.3874430367317202</v>
       </c>
       <c r="F11" t="n">
-        <v>8655.103028437818</v>
+        <v>8641.810710239597</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8499494951515073</v>
+        <v>0.8498752175196295</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -813,13 +813,13 @@
         <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3875113480711116</v>
+        <v>0.3876179652024754</v>
       </c>
       <c r="F12" t="n">
-        <v>8656.960782743798</v>
+        <v>8655.623424043522</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8501670251431136</v>
+        <v>0.8495137383396022</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -845,13 +845,13 @@
         <v>300</v>
       </c>
       <c r="E13" t="n">
-        <v>0.387563991228909</v>
+        <v>0.3875801756606317</v>
       </c>
       <c r="F13" t="n">
-        <v>8654.049847039129</v>
+        <v>8651.401450350048</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8499218940492953</v>
+        <v>0.849756818978165</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -909,13 +909,13 @@
         <v>200</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3929858001147865</v>
+        <v>0.3921708749224038</v>
       </c>
       <c r="F15" t="n">
-        <v>3058.249722627409</v>
+        <v>3048.313666590407</v>
       </c>
       <c r="G15" t="n">
-        <v>1.499038398201603</v>
+        <v>1.495041011255498</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -941,13 +941,13 @@
         <v>300</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3998086856640308</v>
+        <v>0.3991988916062031</v>
       </c>
       <c r="F16" t="n">
-        <v>3203.313776124786</v>
+        <v>3196.284933017136</v>
       </c>
       <c r="G16" t="n">
-        <v>1.449736141908877</v>
+        <v>1.458516119218559</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -973,13 +973,13 @@
         <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4458403892416981</v>
+        <v>0.4454746178595764</v>
       </c>
       <c r="F17" t="n">
-        <v>3654.235181048795</v>
+        <v>3656.873383118541</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8271398481531395</v>
+        <v>0.8276649473805335</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1005,13 +1005,13 @@
         <v>200</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4454746178595764</v>
+        <v>0.448291543913364</v>
       </c>
       <c r="F18" t="n">
-        <v>3656.873383118541</v>
+        <v>3615.085414880898</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8276649473805335</v>
+        <v>0.8196855321157992</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1037,13 +1037,13 @@
         <v>300</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4460655494654994</v>
+        <v>0.4454746178595764</v>
       </c>
       <c r="F19" t="n">
-        <v>3684.516313732795</v>
+        <v>3656.873383118541</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8236775966512401</v>
+        <v>0.8276649473805335</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1069,13 +1069,13 @@
         <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4060904781390077</v>
+        <v>0.4045978522690609</v>
       </c>
       <c r="F20" t="n">
-        <v>5636.669832306199</v>
+        <v>5663.171388630208</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9336187869888398</v>
+        <v>0.9377720187944626</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1101,13 +1101,13 @@
         <v>200</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4045915675834846</v>
+        <v>0.4040951399627933</v>
       </c>
       <c r="F21" t="n">
-        <v>5664.676326508626</v>
+        <v>5671.811636163047</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9375097701117275</v>
+        <v>0.9384652019988339</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1133,13 +1133,13 @@
         <v>300</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4044432947461591</v>
+        <v>0.4046451193834111</v>
       </c>
       <c r="F22" t="n">
-        <v>5667.148142980256</v>
+        <v>5664.019592426435</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9379823000369013</v>
+        <v>0.93641009048499</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1165,13 +1165,13 @@
         <v>100</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4174977325823315</v>
+        <v>0.4170191336830038</v>
       </c>
       <c r="F23" t="n">
-        <v>5571.051951953562</v>
+        <v>5586.515077945047</v>
       </c>
       <c r="G23" t="n">
-        <v>0.917156662339602</v>
+        <v>0.9183657088003726</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1197,13 +1197,13 @@
         <v>200</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4173745940003128</v>
+        <v>0.4165776799522353</v>
       </c>
       <c r="F24" t="n">
-        <v>5572.604268497021</v>
+        <v>5588.239358707005</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9174738767393738</v>
+        <v>0.9194755248444378</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1229,13 +1229,13 @@
         <v>300</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4178262725408046</v>
+        <v>0.4172479347511274</v>
       </c>
       <c r="F25" t="n">
-        <v>5565.68807019182</v>
+        <v>5577.182073822359</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9165165631533582</v>
+        <v>0.9183415321043364</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1261,13 +1261,13 @@
         <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3127371199766076</v>
+        <v>0.3126589806186238</v>
       </c>
       <c r="F26" t="n">
-        <v>8100.291440781987</v>
+        <v>8099.109841739585</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9898757953854975</v>
+        <v>0.989898464775074</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1293,13 +1293,13 @@
         <v>200</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3078707344556314</v>
+        <v>0.3128300292171746</v>
       </c>
       <c r="F27" t="n">
-        <v>8053.377127678</v>
+        <v>8102.109234238462</v>
       </c>
       <c r="G27" t="n">
-        <v>1.017519886502401</v>
+        <v>0.9894046682104797</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1325,13 +1325,13 @@
         <v>300</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3128261004177476</v>
+        <v>0.3125604895219043</v>
       </c>
       <c r="F28" t="n">
-        <v>8101.961388764939</v>
+        <v>8096.532839033758</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9893841942921332</v>
+        <v>0.9905726425749597</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1357,13 +1357,13 @@
         <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3362250704828679</v>
+        <v>0.3317333458133352</v>
       </c>
       <c r="F29" t="n">
-        <v>7624.892567045559</v>
+        <v>7165.734519959762</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8434596759262867</v>
+        <v>0.8336656204896209</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1389,13 +1389,13 @@
         <v>200</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3315248913974244</v>
+        <v>0.3318988789986052</v>
       </c>
       <c r="F30" t="n">
-        <v>7144.124054882011</v>
+        <v>7181.54626740816</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8333107385435072</v>
+        <v>0.8338938411312445</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1421,13 +1421,13 @@
         <v>300</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3362786415945854</v>
+        <v>0.3364178371948867</v>
       </c>
       <c r="F31" t="n">
-        <v>7627.8551135956</v>
+        <v>7644.543899724258</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8434214222879882</v>
+        <v>0.8439005610220773</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1453,13 +1453,13 @@
         <v>100</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3422897481779436</v>
+        <v>0.3424007640256047</v>
       </c>
       <c r="F32" t="n">
-        <v>9295.286315144695</v>
+        <v>9296.627869594775</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9368233716119018</v>
+        <v>0.9365057297309415</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1517,13 +1517,13 @@
         <v>300</v>
       </c>
       <c r="E34" t="n">
-        <v>0.341137605707335</v>
+        <v>0.3410907929190443</v>
       </c>
       <c r="F34" t="n">
-        <v>9293.845714736382</v>
+        <v>9291.931851829067</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9415448783216253</v>
+        <v>0.9414755497233843</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1549,13 +1549,13 @@
         <v>100</v>
       </c>
       <c r="E35" t="n">
-        <v>0.360838722810818</v>
+        <v>0.3606669704393255</v>
       </c>
       <c r="F35" t="n">
-        <v>9515.91693033815</v>
+        <v>9499.343872675228</v>
       </c>
       <c r="G35" t="n">
-        <v>0.919130901364054</v>
+        <v>0.9195127237545649</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1581,13 +1581,13 @@
         <v>200</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3604854606608494</v>
+        <v>0.3608581619761498</v>
       </c>
       <c r="F36" t="n">
-        <v>9505.334464763111</v>
+        <v>9517.159007121087</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9196838302045429</v>
+        <v>0.9190893734320772</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1613,13 +1613,13 @@
         <v>300</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3601588678083794</v>
+        <v>0.3605595792224948</v>
       </c>
       <c r="F37" t="n">
-        <v>9476.279520160768</v>
+        <v>9508.325757423072</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9201642134019931</v>
+        <v>0.9196080832707111</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1645,13 +1645,13 @@
         <v>100</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3941303649609976</v>
+        <v>0.3873388617761333</v>
       </c>
       <c r="F38" t="n">
-        <v>5026.199614125992</v>
+        <v>4946.09042102045</v>
       </c>
       <c r="G38" t="n">
-        <v>0.890919866098996</v>
+        <v>0.9020114423398059</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1677,13 +1677,13 @@
         <v>200</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3851192540369015</v>
+        <v>0.3773797409171356</v>
       </c>
       <c r="F39" t="n">
-        <v>4901.401898333038</v>
+        <v>4892.776579047426</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9073665524244459</v>
+        <v>0.91819288584376</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1709,13 +1709,13 @@
         <v>300</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3749552464647124</v>
+        <v>0.394306190680601</v>
       </c>
       <c r="F40" t="n">
-        <v>4853.387823717316</v>
+        <v>5027.032973229936</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9237168975858524</v>
+        <v>0.8906511098045882</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1741,13 +1741,13 @@
         <v>100</v>
       </c>
       <c r="E41" t="n">
-        <v>0.431793982447517</v>
+        <v>0.4324416550855504</v>
       </c>
       <c r="F41" t="n">
-        <v>3874.986592042972</v>
+        <v>3893.500614100211</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7202180140216877</v>
+        <v>0.7198832699476271</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1805,13 +1805,13 @@
         <v>300</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4311588533862203</v>
+        <v>0.4315528167623028</v>
       </c>
       <c r="F43" t="n">
-        <v>3881.382905357981</v>
+        <v>3878.76863729946</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7212148994569678</v>
+        <v>0.72039875485805</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1837,13 +1837,13 @@
         <v>100</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3594662873365977</v>
+        <v>0.3995187531651864</v>
       </c>
       <c r="F44" t="n">
-        <v>7041.937793529813</v>
+        <v>6433.885533233895</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9523069945157777</v>
+        <v>0.852764335266285</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1869,13 +1869,13 @@
         <v>200</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3994671806625403</v>
+        <v>0.395890760472088</v>
       </c>
       <c r="F45" t="n">
-        <v>6435.176273323329</v>
+        <v>6501.314776473869</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8532655034082394</v>
+        <v>0.8652965763417932</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         <v>300</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3677651670390286</v>
+        <v>0.3883734504284069</v>
       </c>
       <c r="F46" t="n">
-        <v>6926.811119675755</v>
+        <v>6630.159534423639</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9424154244514963</v>
+        <v>0.8893902935508895</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1933,13 +1933,13 @@
         <v>100</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4101132717153071</v>
+        <v>0.3671142086757461</v>
       </c>
       <c r="F47" t="n">
-        <v>6126.750918009139</v>
+        <v>6784.196892015617</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8737726707659803</v>
+        <v>0.9722772287355413</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1965,13 +1965,13 @@
         <v>200</v>
       </c>
       <c r="E48" t="n">
-        <v>0.409617984669521</v>
+        <v>0.4076804207417007</v>
       </c>
       <c r="F48" t="n">
-        <v>6126.540660624026</v>
+        <v>6176.235154575079</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8762195902021471</v>
+        <v>0.8850176248334835</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -1997,13 +1997,13 @@
         <v>300</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4100383925578349</v>
+        <v>0.3588337520252127</v>
       </c>
       <c r="F49" t="n">
-        <v>6127.706593869126</v>
+        <v>6841.089696809323</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8737591092984758</v>
+        <v>0.9749911819919537</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>

--- a/parameter_list/GMM+parameterTuning.xlsx
+++ b/parameter_list/GMM+parameterTuning.xlsx
@@ -493,13 +493,13 @@
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3705783953362942</v>
+        <v>0.3706439733217722</v>
       </c>
       <c r="F2" t="n">
-        <v>5080.447070289368</v>
+        <v>5081.585440938589</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9609280844967838</v>
+        <v>0.9607676988713761</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -525,13 +525,13 @@
         <v>200</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3706451780158456</v>
+        <v>0.3712338199884166</v>
       </c>
       <c r="F3" t="n">
-        <v>5080.50523895579</v>
+        <v>5064.326065589307</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9595036781618478</v>
+        <v>0.9573629699597795</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -557,13 +557,13 @@
         <v>300</v>
       </c>
       <c r="E4" t="n">
-        <v>0.370610571977688</v>
+        <v>0.3711561953205604</v>
       </c>
       <c r="F4" t="n">
-        <v>5079.905901894858</v>
+        <v>5073.703481888813</v>
       </c>
       <c r="G4" t="n">
-        <v>0.960707026054035</v>
+        <v>0.9570053044464176</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -589,13 +589,13 @@
         <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4526589152577544</v>
+        <v>0.4527979532207544</v>
       </c>
       <c r="F5" t="n">
-        <v>2531.215350147853</v>
+        <v>2537.143858591715</v>
       </c>
       <c r="G5" t="n">
-        <v>0.675983045896853</v>
+        <v>0.675953161735702</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,13 +621,13 @@
         <v>200</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4527979532207544</v>
+        <v>0.4526589152577544</v>
       </c>
       <c r="F6" t="n">
-        <v>2537.143858591715</v>
+        <v>2531.215350147853</v>
       </c>
       <c r="G6" t="n">
-        <v>0.675953161735702</v>
+        <v>0.675983045896853</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -653,13 +653,13 @@
         <v>300</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4528548189754595</v>
+        <v>0.4527979532207544</v>
       </c>
       <c r="F7" t="n">
-        <v>2520.732946607047</v>
+        <v>2537.143858591715</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6741595738377016</v>
+        <v>0.675953161735702</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -685,13 +685,13 @@
         <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3821773542624384</v>
+        <v>0.3820403021320954</v>
       </c>
       <c r="F8" t="n">
-        <v>8662.568993659788</v>
+        <v>8678.138302571881</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8632616850971558</v>
+        <v>0.8646519068365008</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -717,13 +717,13 @@
         <v>200</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3817858535384154</v>
+        <v>0.3821607275759917</v>
       </c>
       <c r="F9" t="n">
-        <v>8670.459989039735</v>
+        <v>8661.855602545696</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8649506858602433</v>
+        <v>0.8627595843620219</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>300</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3821865760697379</v>
+        <v>0.3818786229738593</v>
       </c>
       <c r="F10" t="n">
-        <v>8661.37614331081</v>
+        <v>8677.748390688294</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8631312068650848</v>
+        <v>0.8651343506231758</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -781,13 +781,13 @@
         <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3874430367317202</v>
+        <v>0.38754533778745</v>
       </c>
       <c r="F11" t="n">
-        <v>8641.810710239597</v>
+        <v>8653.149489826159</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8498752175196295</v>
+        <v>0.8498772053198915</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -813,13 +813,13 @@
         <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3876179652024754</v>
+        <v>0.387563991228909</v>
       </c>
       <c r="F12" t="n">
-        <v>8655.623424043522</v>
+        <v>8654.049847039129</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8495137383396022</v>
+        <v>0.8499218940492953</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -845,13 +845,13 @@
         <v>300</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3875801756606317</v>
+        <v>0.3875388548500825</v>
       </c>
       <c r="F13" t="n">
-        <v>8651.401450350048</v>
+        <v>8650.97855037157</v>
       </c>
       <c r="G13" t="n">
-        <v>0.849756818978165</v>
+        <v>0.8498017396595485</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -877,13 +877,13 @@
         <v>100</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3881652031009871</v>
+        <v>0.3931016557150665</v>
       </c>
       <c r="F14" t="n">
-        <v>2974.547023631191</v>
+        <v>3055.097374446125</v>
       </c>
       <c r="G14" t="n">
-        <v>1.526564623219458</v>
+        <v>1.49959742782768</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -909,13 +909,13 @@
         <v>200</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3921708749224038</v>
+        <v>0.3892535495875113</v>
       </c>
       <c r="F15" t="n">
-        <v>3048.313666590407</v>
+        <v>2992.208360210222</v>
       </c>
       <c r="G15" t="n">
-        <v>1.495041011255498</v>
+        <v>1.511246941867851</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -941,13 +941,13 @@
         <v>300</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3991988916062031</v>
+        <v>0.3881652031009871</v>
       </c>
       <c r="F16" t="n">
-        <v>3196.284933017136</v>
+        <v>2974.547023631191</v>
       </c>
       <c r="G16" t="n">
-        <v>1.458516119218559</v>
+        <v>1.526564623219458</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -973,13 +973,13 @@
         <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4454746178595764</v>
+        <v>0.4449962485393325</v>
       </c>
       <c r="F17" t="n">
-        <v>3656.873383118541</v>
+        <v>3652.381333934555</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8276649473805335</v>
+        <v>0.8295572126793221</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1005,13 +1005,13 @@
         <v>200</v>
       </c>
       <c r="E18" t="n">
-        <v>0.448291543913364</v>
+        <v>0.4454746178595764</v>
       </c>
       <c r="F18" t="n">
-        <v>3615.085414880898</v>
+        <v>3656.873383118541</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8196855321157992</v>
+        <v>0.8276649473805336</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1037,13 +1037,13 @@
         <v>300</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4454746178595764</v>
+        <v>0.4458403892416981</v>
       </c>
       <c r="F19" t="n">
-        <v>3656.873383118541</v>
+        <v>3654.235181048794</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8276649473805335</v>
+        <v>0.8271398481531395</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1069,13 +1069,13 @@
         <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4045978522690609</v>
+        <v>0.4062245612595565</v>
       </c>
       <c r="F20" t="n">
-        <v>5663.171388630208</v>
+        <v>5635.804130480229</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9377720187944626</v>
+        <v>0.9334008966222239</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1101,13 +1101,13 @@
         <v>200</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4040951399627933</v>
+        <v>0.4062245612595565</v>
       </c>
       <c r="F21" t="n">
-        <v>5671.811636163047</v>
+        <v>5635.804130480228</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9384652019988339</v>
+        <v>0.9334008966222239</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1133,13 +1133,13 @@
         <v>300</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4046451193834111</v>
+        <v>0.4047556848895816</v>
       </c>
       <c r="F22" t="n">
-        <v>5664.019592426435</v>
+        <v>5662.783408641554</v>
       </c>
       <c r="G22" t="n">
-        <v>0.93641009048499</v>
+        <v>0.9359846053748077</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1165,13 +1165,13 @@
         <v>100</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4170191336830038</v>
+        <v>0.4179397245336507</v>
       </c>
       <c r="F23" t="n">
-        <v>5586.515077945047</v>
+        <v>5556.805729836735</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9183657088003726</v>
+        <v>0.9168876799402866</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1197,13 +1197,13 @@
         <v>200</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4165776799522353</v>
+        <v>0.4173745940003128</v>
       </c>
       <c r="F24" t="n">
-        <v>5588.239358707005</v>
+        <v>5572.604268497021</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9194755248444378</v>
+        <v>0.9174738767393738</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1229,13 +1229,13 @@
         <v>300</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4172479347511274</v>
+        <v>0.4172637563818623</v>
       </c>
       <c r="F25" t="n">
-        <v>5577.182073822359</v>
+        <v>5574.433371245687</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9183415321043364</v>
+        <v>0.9176520594679749</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1261,13 +1261,13 @@
         <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3126589806186238</v>
+        <v>0.3128237233882544</v>
       </c>
       <c r="F26" t="n">
-        <v>8099.109841739585</v>
+        <v>8101.312391806247</v>
       </c>
       <c r="G26" t="n">
-        <v>0.989898464775074</v>
+        <v>0.9893089295202069</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1293,13 +1293,13 @@
         <v>200</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3128300292171746</v>
+        <v>0.3127961714734958</v>
       </c>
       <c r="F27" t="n">
-        <v>8102.109234238462</v>
+        <v>8100.988963232811</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9894046682104797</v>
+        <v>0.9892857814936861</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1325,13 +1325,13 @@
         <v>300</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3125604895219043</v>
+        <v>0.3085656986747626</v>
       </c>
       <c r="F28" t="n">
-        <v>8096.532839033758</v>
+        <v>8064.472984785803</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9905726425749597</v>
+        <v>1.012501498281307</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1357,13 +1357,13 @@
         <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3317333458133352</v>
+        <v>0.3333384599109536</v>
       </c>
       <c r="F29" t="n">
-        <v>7165.734519959762</v>
+        <v>7364.89106685937</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8336656204896209</v>
+        <v>0.8390398598023642</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1389,13 +1389,13 @@
         <v>200</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3318988789986052</v>
+        <v>0.331921751547344</v>
       </c>
       <c r="F30" t="n">
-        <v>7181.54626740816</v>
+        <v>7188.056661313986</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8338938411312445</v>
+        <v>0.8341311435730149</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1421,13 +1421,13 @@
         <v>300</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3364178371948867</v>
+        <v>0.336503895913799</v>
       </c>
       <c r="F31" t="n">
-        <v>7644.543899724258</v>
+        <v>7656.73602523538</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8439005610220773</v>
+        <v>0.8442138258622038</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1453,13 +1453,13 @@
         <v>100</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3424007640256047</v>
+        <v>0.3411167644969014</v>
       </c>
       <c r="F32" t="n">
-        <v>9296.627869594775</v>
+        <v>9292.290140521194</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9365057297309415</v>
+        <v>0.9414371445170578</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1485,13 +1485,13 @@
         <v>200</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3411473312649019</v>
+        <v>0.3411849071698716</v>
       </c>
       <c r="F33" t="n">
-        <v>9293.529622884815</v>
+        <v>9294.759464661434</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9414828383127966</v>
+        <v>0.941405741640383</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1517,13 +1517,13 @@
         <v>300</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3410907929190443</v>
+        <v>0.3423251844236584</v>
       </c>
       <c r="F34" t="n">
-        <v>9291.931851829067</v>
+        <v>9291.51877764149</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9414755497233843</v>
+        <v>0.9367254008000452</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1549,13 +1549,13 @@
         <v>100</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3606669704393255</v>
+        <v>0.3605433834686473</v>
       </c>
       <c r="F35" t="n">
-        <v>9499.343872675228</v>
+        <v>9506.494305648717</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9195127237545649</v>
+        <v>0.9195013168600945</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1581,13 +1581,13 @@
         <v>200</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3608581619761498</v>
+        <v>0.3609304060345884</v>
       </c>
       <c r="F36" t="n">
-        <v>9517.159007121087</v>
+        <v>9525.926140373422</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9190893734320772</v>
+        <v>0.9190650611769589</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1613,13 +1613,13 @@
         <v>300</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3605595792224948</v>
+        <v>0.3606600215430792</v>
       </c>
       <c r="F37" t="n">
-        <v>9508.325757423072</v>
+        <v>9512.370625318683</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9196080832707111</v>
+        <v>0.9193273926060398</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1645,13 +1645,13 @@
         <v>100</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3873388617761333</v>
+        <v>0.3779594329946405</v>
       </c>
       <c r="F38" t="n">
-        <v>4946.09042102045</v>
+        <v>4893.104472758311</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9020114423398059</v>
+        <v>0.9175599254646061</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1677,13 +1677,13 @@
         <v>200</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3773797409171356</v>
+        <v>0.3749552464647124</v>
       </c>
       <c r="F39" t="n">
-        <v>4892.776579047426</v>
+        <v>4853.387823717316</v>
       </c>
       <c r="G39" t="n">
-        <v>0.91819288584376</v>
+        <v>0.9237168975858524</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1709,13 +1709,13 @@
         <v>300</v>
       </c>
       <c r="E40" t="n">
-        <v>0.394306190680601</v>
+        <v>0.3840590832797521</v>
       </c>
       <c r="F40" t="n">
-        <v>5027.032973229936</v>
+        <v>4883.48272347999</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8906511098045882</v>
+        <v>0.9110889075682079</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1741,13 +1741,13 @@
         <v>100</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4324416550855504</v>
+        <v>0.4310175470273296</v>
       </c>
       <c r="F41" t="n">
-        <v>3893.500614100211</v>
+        <v>3893.534493539057</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7198832699476271</v>
+        <v>0.7219834982765351</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1773,13 +1773,13 @@
         <v>200</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4383141734217992</v>
+        <v>0.4320791971585612</v>
       </c>
       <c r="F42" t="n">
-        <v>3857.606472392716</v>
+        <v>3875.460973814077</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7061327063081136</v>
+        <v>0.7190154517595646</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1805,13 +1805,13 @@
         <v>300</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4315528167623028</v>
+        <v>0.434844391148796</v>
       </c>
       <c r="F43" t="n">
-        <v>3878.76863729946</v>
+        <v>3877.413430341928</v>
       </c>
       <c r="G43" t="n">
-        <v>0.72039875485805</v>
+        <v>0.7136957733737356</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1837,13 +1837,13 @@
         <v>100</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3995187531651864</v>
+        <v>0.3750080380671837</v>
       </c>
       <c r="F44" t="n">
-        <v>6433.885533233895</v>
+        <v>6828.86366433099</v>
       </c>
       <c r="G44" t="n">
-        <v>0.852764335266285</v>
+        <v>0.9260561430862971</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1869,13 +1869,13 @@
         <v>200</v>
       </c>
       <c r="E45" t="n">
-        <v>0.395890760472088</v>
+        <v>0.3994671806625403</v>
       </c>
       <c r="F45" t="n">
-        <v>6501.314776473869</v>
+        <v>6435.176273323326</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8652965763417932</v>
+        <v>0.8532655034082394</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         <v>300</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3883734504284069</v>
+        <v>0.3733728872103747</v>
       </c>
       <c r="F46" t="n">
-        <v>6630.159534423639</v>
+        <v>6856.468625509049</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8893902935508895</v>
+        <v>0.9300249005029219</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1933,13 +1933,13 @@
         <v>100</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3671142086757461</v>
+        <v>0.3633787697988261</v>
       </c>
       <c r="F47" t="n">
-        <v>6784.196892015617</v>
+        <v>6798.629211401505</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9722772287355413</v>
+        <v>0.9719946210495286</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1965,13 +1965,13 @@
         <v>200</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4076804207417007</v>
+        <v>0.406644428643923</v>
       </c>
       <c r="F48" t="n">
-        <v>6176.235154575079</v>
+        <v>6188.771101860152</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8850176248334835</v>
+        <v>0.8890174672783084</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -1997,13 +1997,13 @@
         <v>300</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3588337520252127</v>
+        <v>0.4103303266839076</v>
       </c>
       <c r="F49" t="n">
-        <v>6841.089696809323</v>
+        <v>6121.207230247584</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9749911819919537</v>
+        <v>0.8732185328951031</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
